--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>变量名称</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>前进按钮</t>
+  </si>
+  <si>
+    <t>0x001A</t>
+  </si>
+  <si>
+    <t>电机旋转角</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,6 +863,17 @@
       </c>
       <c r="C14" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>变量名称</t>
   </si>
@@ -248,9 +248,6 @@
     <t>当前位置</t>
   </si>
   <si>
-    <t>旋转角度</t>
-  </si>
-  <si>
     <t>初始位置</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
   </si>
   <si>
     <t>前进按钮</t>
-  </si>
-  <si>
-    <t>0x001A</t>
   </si>
   <si>
     <t>电机旋转角</t>
@@ -698,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +787,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -804,10 +798,10 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,7 +812,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,10 +820,10 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -837,10 +831,10 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,10 +842,10 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -859,21 +853,10 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/DGUS/变量地址分配.xlsx
+++ b/DGUS/变量地址分配.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>变量名称</t>
   </si>
@@ -273,6 +273,33 @@
   </si>
   <si>
     <t>电机旋转角</t>
+  </si>
+  <si>
+    <t>pulseSettingNum</t>
+  </si>
+  <si>
+    <t>pulseSettingFreq</t>
+  </si>
+  <si>
+    <t>motorStepAngle</t>
+  </si>
+  <si>
+    <t>screwPitch</t>
+  </si>
+  <si>
+    <t>motorReducGearRatio</t>
+  </si>
+  <si>
+    <t>ballScrew</t>
+  </si>
+  <si>
+    <t>motorRotationAngle</t>
+  </si>
+  <si>
+    <t>currentPosition</t>
+  </si>
+  <si>
+    <t>isStartPosition</t>
   </si>
 </sst>
 </file>
@@ -692,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,9 +730,10 @@
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,8 +743,9 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -726,8 +755,11 @@
       <c r="C2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -737,8 +769,11 @@
       <c r="C3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -748,8 +783,11 @@
       <c r="C4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -759,8 +797,11 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -770,8 +811,11 @@
       <c r="C6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -781,8 +825,11 @@
       <c r="C7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -792,8 +839,11 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -804,7 +854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -814,8 +864,11 @@
       <c r="C10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -825,8 +878,11 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -837,7 +893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -848,7 +904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
